--- a/SMT Assembly/BOM_TOP.xlsx
+++ b/SMT Assembly/BOM_TOP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="70">
   <si>
     <t>Comment</t>
   </si>
@@ -78,12 +78,6 @@
     <t>1uF</t>
   </si>
   <si>
-    <t>C15849</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
     <t>C25804</t>
   </si>
   <si>
@@ -226,6 +220,45 @@
   </si>
   <si>
     <t>C83479</t>
+  </si>
+  <si>
+    <t>C28323</t>
+  </si>
+  <si>
+    <t>C0805</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>100K</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>8.5K</t>
+  </si>
+  <si>
+    <t>C23114</t>
+  </si>
+  <si>
+    <t>C124752</t>
+  </si>
+  <si>
+    <t>SOT-23(SOT-23-3)</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>MMBT3904</t>
+  </si>
+  <si>
+    <t>R2,R4</t>
+  </si>
+  <si>
+    <t>C25803</t>
   </si>
 </sst>
 </file>
@@ -612,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -645,13 +678,13 @@
         <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -659,7 +692,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>5</v>
@@ -670,198 +703,240 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="3" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="5" t="s">
+      <c r="C17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="4" t="s">
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="5" t="s">
+      <c r="D19" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
